--- a/docs/Files/ODYM_Config_Vehicle_System.xlsx
+++ b/docs/Files/ODYM_Config_Vehicle_System.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Box/BATMAN/Coding/Global_model/docs/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/Global_LIB_system/docs/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D60344-0925-3646-8E60-B5606E0B3FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC3255-1CAA-0F48-AC95-3A1618C53F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="5560" windowWidth="38400" windowHeight="21100" tabRatio="844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26660" windowHeight="28300" tabRatio="844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
   <si>
     <t>Description</t>
   </si>
@@ -417,12 +417,6 @@
     <t>Ownership_Scenarios</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>ownership</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -439,6 +433,12 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Size_Scenarios</t>
   </si>
 </sst>
 </file>
@@ -1215,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1433,25 +1433,25 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
@@ -1760,39 +1760,36 @@
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C32" s="45" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
         <v>127</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G32" t="s">
         <v>69</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="I32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C33" s="45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G33" t="s">
         <v>69</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I33" t="s">
         <v>91</v>
